--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D9A496-2A20-4B4F-ADC1-13E9ABB729B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FB8B60-32E1-439D-8729-584D637BD6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>feed_id</t>
   </si>
@@ -203,6 +203,12 @@
   <si>
     <t>t_language_codes</t>
   </si>
+  <si>
+    <t>target_schema_name</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
 </sst>
 </file>
 
@@ -243,14 +249,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -328,9 +327,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:N3" totalsRowShown="0">
-  <autoFilter ref="A1:N3" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
-  <tableColumns count="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:O3" totalsRowShown="0">
+  <autoFilter ref="A1:O3" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
     <tableColumn id="3" xr3:uid="{7FE399AA-762B-4A89-ADDF-36E470765A3A}" name="subsystem_name"/>
@@ -342,6 +341,7 @@
     <tableColumn id="6" xr3:uid="{3CBA4955-B868-4168-B070-9278578AC795}" name="feed_type"/>
     <tableColumn id="13" xr3:uid="{93BA7B57-40EB-45E1-A0CA-A4F6EA8347FF}" name="feed_specs" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{2C02A3F4-6682-425E-832E-EF4160E0E9A6}" name="load_type"/>
+    <tableColumn id="15" xr3:uid="{687680AB-80AF-4999-973E-C08326E5B094}" name="target_schema_name"/>
     <tableColumn id="5" xr3:uid="{3C75B709-D3DC-4440-8F79-AD9A22C27396}" name="target_table_name"/>
     <tableColumn id="9" xr3:uid="{5A446942-05ED-4557-BE80-1C3D680120E0}" name="suggested_feed_name">
       <calculatedColumnFormula>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</calculatedColumnFormula>
@@ -649,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,12 +668,13 @@
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -708,16 +709,19 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -752,17 +756,20 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="str">
+      <c r="N2" t="str">
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
         <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
       </c>
-      <c r="N2" t="b">
+      <c r="O2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -797,34 +804,32 @@
         <v>21</v>
       </c>
       <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" t="str">
+      <c r="N3" t="str">
         <f>_xlfn.CONCAT("t_uid_",A3,"_",LEFT(B3, 1), LEFT(C3, 1), LEFT(D3, 1), LEFT(E3, 1), LEFT(I3, 1), "_", K3,"_",H3)</f>
         <v>t_uid_2_YDCLU_FULL_LOAD_language_codes</v>
       </c>
-      <c r="N3" t="b">
+      <c r="O3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:M3">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
-      <formula>LEN(TRIM(B2))=0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
     <cfRule type="duplicateValues" dxfId="7" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L3">
+  <conditionalFormatting sqref="M2:M3">
     <cfRule type="duplicateValues" dxfId="6" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
+  <conditionalFormatting sqref="A2:O3">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(N2))=0</formula>
+      <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
@@ -846,17 +851,17 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{3E6A07F7-C312-4051-B570-C24934D204AA}">
       <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="L2:L3" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
-      <formula1>AND(L2&lt;&gt;"",L2=TRIM(L2),ISERROR(SEARCH(" ",L2)),L2=LOWER(L2),NOT(ISNUMBER(--LEFT(L2,1))),LEN(L2)&gt;=3,LEN(L2)&lt;=50,LEFT(L2,2)="t_")</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H3 J2:J3" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="M2:M3" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
+      <formula1>AND(M2&lt;&gt;"",M2=TRIM(M2),ISERROR(SEARCH(" ",M2)),M2=LOWER(M2),NOT(ISNUMBER(--LEFT(M2,1))),LEN(M2)&gt;=3,LEN(M2)&lt;=50,LEFT(M2,2)="t_")</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H3 J2:J3 L2:L3" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
       <formula1>"SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FB8B60-32E1-439D-8729-584D637BD6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1219CAA-8AFB-4CF8-B086-DC7A93E422D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
   <sheets>
     <sheet name="master_specs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>feed_id</t>
   </si>
@@ -209,6 +209,9 @@
   <si>
     <t>demo</t>
   </si>
+  <si>
+    <t>parallelism_group_number</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +252,42 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -327,9 +365,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:O3" totalsRowShown="0">
-  <autoFilter ref="A1:O3" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:P3" totalsRowShown="0">
+  <autoFilter ref="A1:P3" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
     <tableColumn id="3" xr3:uid="{7FE399AA-762B-4A89-ADDF-36E470765A3A}" name="subsystem_name"/>
@@ -346,6 +384,7 @@
     <tableColumn id="9" xr3:uid="{5A446942-05ED-4557-BE80-1C3D680120E0}" name="suggested_feed_name">
       <calculatedColumnFormula>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="16" xr3:uid="{40CA92F8-AF52-4EF8-955C-882F702980A1}" name="parallelism_group_number"/>
     <tableColumn id="14" xr3:uid="{7575AF13-50BC-43B4-97DF-53F8A99E1653}" name="is_active"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -353,9 +392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +432,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +538,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -649,32 +688,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="38.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,10 +758,13 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -765,11 +808,14 @@
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
         <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
       </c>
-      <c r="O2" t="b">
+      <c r="O2">
         <v>1</v>
       </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -813,23 +859,31 @@
         <f>_xlfn.CONCAT("t_uid_",A3,"_",LEFT(B3, 1), LEFT(C3, 1), LEFT(D3, 1), LEFT(E3, 1), LEFT(I3, 1), "_", K3,"_",H3)</f>
         <v>t_uid_2_YDCLU_FULL_LOAD_language_codes</v>
       </c>
-      <c r="O3" t="b">
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="8" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:P3">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
+      <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H3">
-    <cfRule type="duplicateValues" dxfId="7" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M3">
-    <cfRule type="duplicateValues" dxfId="6" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O3">
+  <conditionalFormatting sqref="O2:O3">
     <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(A2))=0</formula>
+      <formula>LEN(TRIM(O2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="11">
@@ -861,7 +915,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1219CAA-8AFB-4CF8-B086-DC7A93E422D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17E2D9-1376-43E4-A0AA-DD50C52DED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>feed_id</t>
   </si>
@@ -96,121 +96,118 @@
     <t>UNITY_CATALOG</t>
   </si>
   <si>
+    <t>FULL_LOAD</t>
+  </si>
+  <si>
+    <t>t_country_codes</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>target_schema_name</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>parallelism_group_number</t>
+  </si>
+  <si>
+    <t>target_unity_catalog</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
     <t>{
-            "primary_key": "alpha3-b",
-            "composite_key": [],
-            "partition_keys": [],
-            "vacuum_hours": 168,
-            "source_table_name":"demo.customers",
-            "selection_schema": {
-                "type": "struct",
-                "fields": [
-                    {
-                        "name": "alpha3-b",
-                        "type": "string",
-                        "nullable": true
-                    },
-                    {
-                        "name": "alpha3_t",
-                        "type": "string",
-                        "nullable": true
-                    },
-                    {
-                        "name": "alpha2",
-                        "type": "string",
-                        "nullable": true
-                    },
-                    {
-                        "name": "english",
-                        "type": "string",
-                        "nullable": true
-                    }
-                ]
+    "primary_key": "alpha3_b",
+    "composite_key": [],
+    "partition_keys": [],
+    "vacuum_hours": 168,
+    "source_table_name": "demo.customers",
+    "selection_query":null,
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "alpha3_b",
+                "type": "string",
+                "nullable": true
             },
-            "standard_checks": [
-                {
-                    "check_sequence": [
-                        "_check_primary_key"
-                    ],
-                    "column_name": "alpha3-b",
-                    "threshold": 0
-                },
-                {
-                    "check_sequence": [
-                        "_check_nulls"
-                    ],
-                    "column_name": "english",
-                    "threshold": 0
-                }
+            {
+                "name": "alpha3_t",
+                "type": "string",
+                "nullable": true
+            },
+            {
+                "name": "alpha2",
+                "type": "string",
+                "nullable": true
+            },
+            {
+                "name": "english",
+                "type": "string",
+                "nullable": true
+            }
+        ]
+    },
+    "standard_checks": [
+        {
+            "check_sequence": [
+                "_check_primary_key"
             ],
-            "comprehensive_checks": [
-                {
-                    "check_name":"Some unique check name",
-                    "query":"Select 1;",
-                    "severity":"ERROR",
-                    "threshold": 0,
-                    "load_stage":"PRE_LOAD",
-                    "dependency_dataset":[]
-                },
-                {
-                    "check_name":"Some unique check name 1",
-                    "query":"Select 1;",
-                    "severity":"ERROR",
-                    "threshold": 0,
-                    "load_stage":"PRE_LOAD",
-                    "dependency_dataset":[]
-                },
-                {
-                    "check_name":"Some unique check name 2",
-                    "query":"Select 1;",
-                    "severity":"WARNING",
-                    "threshold": 0,
-                    "load_stage":"PRE_LOAD",
-                    "dependency_dataset":[]
-                },
-                {
-                    "check_name":"Some unique check name 3",
-                    "query":"Select 1;",
-                    "severity":"WARNING",
-                    "threshold": 0,
-                    "load_stage":"POST_LOAD",
-                    "dependency_dataset":["demo.customers"]
-                }
+            "column_name": "alpha3_b",
+            "threshold": 0
+        },
+        {
+            "check_sequence": [
+                "_check_nulls"
+            ],
+            "column_name": "english",
+            "threshold": 0
+        }
+    ],
+    "comprehensive_checks": [
+        {
+            "check_name": "Some unique check name",
+            "query": "Select 1;",
+            "severity": "ERROR",
+            "threshold": 0,
+            "load_stage": "PRE_LOAD",
+            "dependency_dataset": []
+        },
+        {
+            "check_name": "Some unique check name 1",
+            "query": "Select 1;",
+            "severity": "ERROR",
+            "threshold": 0,
+            "load_stage": "PRE_LOAD",
+            "dependency_dataset": []
+        },
+        {
+            "check_name": "Some unique check name 2",
+            "query": "Select 1;",
+            "severity": "WARNING",
+            "threshold": 0,
+            "load_stage": "PRE_LOAD",
+            "dependency_dataset": []
+        },
+        {
+            "check_name": "Some unique check name 3",
+            "query": "Select 1;",
+            "severity": "WARNING",
+            "threshold": 0,
+            "load_stage": "POST_LOAD",
+            "dependency_dataset": [
+                "demo.customers"
             ]
-        }</t>
-  </si>
-  <si>
-    <t>FULL_LOAD</t>
-  </si>
-  <si>
-    <t>t_country_codes</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>DATA_ENRICHMENT</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>language_codes</t>
-  </si>
-  <si>
-    <t>t_language_codes</t>
-  </si>
-  <si>
-    <t>target_schema_name</t>
-  </si>
-  <si>
-    <t>demo</t>
-  </si>
-  <si>
-    <t>parallelism_group_number</t>
+        }
+    ]
+}</t>
   </si>
 </sst>
 </file>
@@ -252,77 +249,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -365,9 +292,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:P3" totalsRowShown="0">
-  <autoFilter ref="A1:P3" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:Q2" totalsRowShown="0">
+  <autoFilter ref="A1:Q2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+  <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
     <tableColumn id="3" xr3:uid="{7FE399AA-762B-4A89-ADDF-36E470765A3A}" name="subsystem_name"/>
@@ -379,6 +306,7 @@
     <tableColumn id="6" xr3:uid="{3CBA4955-B868-4168-B070-9278578AC795}" name="feed_type"/>
     <tableColumn id="13" xr3:uid="{93BA7B57-40EB-45E1-A0CA-A4F6EA8347FF}" name="feed_specs" dataCellStyle="Normal"/>
     <tableColumn id="4" xr3:uid="{2C02A3F4-6682-425E-832E-EF4160E0E9A6}" name="load_type"/>
+    <tableColumn id="17" xr3:uid="{660EA90C-CBD3-4824-90DF-1D0E6D86D0A6}" name="target_unity_catalog"/>
     <tableColumn id="15" xr3:uid="{687680AB-80AF-4999-973E-C08326E5B094}" name="target_schema_name"/>
     <tableColumn id="5" xr3:uid="{3C75B709-D3DC-4440-8F79-AD9A22C27396}" name="target_table_name"/>
     <tableColumn id="9" xr3:uid="{5A446942-05ED-4557-BE80-1C3D680120E0}" name="suggested_feed_name">
@@ -688,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,13 +636,14 @@
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.28515625" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -749,22 +678,25 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>31</v>
-      </c>
       <c r="P1" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -784,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -793,130 +725,80 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="str">
+      <c r="O2" t="str">
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
         <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1</v>
       </c>
-      <c r="P2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" t="str">
-        <f>_xlfn.CONCAT("t_uid_",A3,"_",LEFT(B3, 1), LEFT(C3, 1), LEFT(D3, 1), LEFT(E3, 1), LEFT(I3, 1), "_", K3,"_",H3)</f>
-        <v>t_uid_2_YDCLU_FULL_LOAD_language_codes</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="b">
+      <c r="Q2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="9" priority="20"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:P3">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+  <conditionalFormatting sqref="A2:Q2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="duplicateValues" dxfId="7" priority="21"/>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M3">
-    <cfRule type="duplicateValues" dxfId="6" priority="22"/>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(O2))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="11">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
+  <dataValidations count="12">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
       <formula1>"YALS_WORLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
       <formula1>"DATA_ENRICHMENT,GENERIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
       <formula1>"CODES,RELIGION"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
       <formula1>"COUNTRY,LANGUAGE,HINDUISM,ISLAM,CHRISTIANITY"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
       <formula1>"QUERY,UNITY_CATALOG"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{3E6A07F7-C312-4051-B570-C24934D204AA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{3E6A07F7-C312-4051-B570-C24934D204AA}">
       <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="M2:M3" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
-      <formula1>AND(M2&lt;&gt;"",M2=TRIM(M2),ISERROR(SEARCH(" ",M2)),M2=LOWER(M2),NOT(ISNUMBER(--LEFT(M2,1))),LEN(M2)&gt;=3,LEN(M2)&lt;=50,LEFT(M2,2)="t_")</formula1>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H3 J2:J3 L2:L3" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
+      <formula1>AND(N2&lt;&gt;"",N2=TRIM(N2),ISERROR(SEARCH(" ",N2)),N2=LOWER(N2),NOT(ISNUMBER(--LEFT(N2,1))),LEN(N2)&gt;=3,LEN(N2)&lt;=50,LEFT(N2,2)="t_")</formula1>
+    </dataValidation>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J2 M2 H2" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
       <formula1>"SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
+      <formula1>"testing"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF17E2D9-1376-43E4-A0AA-DD50C52DED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9FE9AC-B396-4A44-A047-A4A686D45C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -175,7 +175,7 @@
         {
             "check_name": "Some unique check name",
             "query": "Select 1;",
-            "severity": "ERROR",
+            "severity": "WARNING",
             "threshold": 0,
             "load_stage": "PRE_LOAD",
             "dependency_dataset": []
@@ -183,7 +183,7 @@
         {
             "check_name": "Some unique check name 1",
             "query": "Select 1;",
-            "severity": "ERROR",
+            "severity": "WARNING",
             "threshold": 0,
             "load_stage": "PRE_LOAD",
             "dependency_dataset": []
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9FE9AC-B396-4A44-A047-A4A686D45C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D80C0-115B-4A64-9155-558A065ECDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>UNITY_CATALOG</t>
-  </si>
-  <si>
-    <t>FULL_LOAD</t>
   </si>
   <si>
     <t>t_country_codes</t>
@@ -208,6 +205,9 @@
         }
     ]
 }</t>
+  </si>
+  <si>
+    <t>INCREMENTAL_CDC</t>
   </si>
 </sst>
 </file>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,10 +678,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -690,10 +690,10 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -725,23 +725,23 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
         <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>21</v>
       </c>
       <c r="O2" t="str">
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
-        <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
+        <v>t_uid_1_YGCCU_INCREMENTAL_CDC_country_codes</v>
       </c>
       <c r="P2">
         <v>1</v>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61D80C0-115B-4A64-9155-558A065ECDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B295DE4-D3EE-46F3-B5C4-C9A5B37A312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>feed_id</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>COUNTRY</t>
-  </si>
-  <si>
-    <t>SOURCE_TO_BRONZE</t>
   </si>
   <si>
     <t>country_codes</t>
@@ -209,6 +206,12 @@
   <si>
     <t>INCREMENTAL_CDC</t>
   </si>
+  <si>
+    <t>parent_feed_id</t>
+  </si>
+  <si>
+    <t>BRONZE_TO_SILVER</t>
+  </si>
 </sst>
 </file>
 
@@ -249,7 +252,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -292,9 +309,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:Q2" totalsRowShown="0">
-  <autoFilter ref="A1:Q2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R2" totalsRowShown="0">
+  <autoFilter ref="A1:R2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
     <tableColumn id="3" xr3:uid="{7FE399AA-762B-4A89-ADDF-36E470765A3A}" name="subsystem_name"/>
@@ -313,6 +330,7 @@
       <calculatedColumnFormula>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{40CA92F8-AF52-4EF8-955C-882F702980A1}" name="parallelism_group_number"/>
+    <tableColumn id="18" xr3:uid="{5CC6F897-D46E-4ED1-BC99-5FAF97F6B185}" name="parent_feed_id"/>
     <tableColumn id="14" xr3:uid="{7575AF13-50BC-43B4-97DF-53F8A99E1653}" name="is_active"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -616,34 +634,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.28515625" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -678,10 +697,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -690,13 +709,16 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -713,31 +735,31 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
       </c>
       <c r="O2" t="str">
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
@@ -746,24 +768,30 @@
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2" t="b">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="3" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:Q2">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
+  <conditionalFormatting sqref="A2:R2">
+    <cfRule type="containsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
   </conditionalFormatting>
   <dataValidations count="12">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
@@ -794,7 +822,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B295DE4-D3EE-46F3-B5C4-C9A5B37A312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFA224-F179-4B22-AA5C-0321F09B9538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>feed_id</t>
   </si>
@@ -204,13 +204,22 @@
 }</t>
   </si>
   <si>
-    <t>INCREMENTAL_CDC</t>
-  </si>
-  <si>
     <t>parent_feed_id</t>
   </si>
   <si>
-    <t>BRONZE_TO_SILVER</t>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>SOURCE_TO_BRONZE</t>
+  </si>
+  <si>
+    <t>language_codes</t>
+  </si>
+  <si>
+    <t>t_language_codes</t>
+  </si>
+  <si>
+    <t>FULL_LOAD</t>
   </si>
 </sst>
 </file>
@@ -252,14 +261,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -309,8 +311,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R2" totalsRowShown="0">
-  <autoFilter ref="A1:R2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R3" totalsRowShown="0">
+  <autoFilter ref="A1:R3" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
@@ -634,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +651,7 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
@@ -712,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -750,7 +752,7 @@
         <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -763,7 +765,7 @@
       </c>
       <c r="O2" t="str">
         <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
-        <v>t_uid_1_YGCCU_INCREMENTAL_CDC_country_codes</v>
+        <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -775,57 +777,114 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("t_uid_",A3,"_",LEFT(B3, 1), LEFT(C3, 1), LEFT(D3, 1), LEFT(E3, 1), LEFT(I3, 1), "_", K3,"_",H3)</f>
+        <v>t_uid_2_YGCLU_FULL_LOAD_language_codes</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="2" priority="24"/>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="A2:A3">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
+    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R2">
-    <cfRule type="containsBlanks" dxfId="5" priority="3">
+  <conditionalFormatting sqref="A2:R3">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="4" priority="25"/>
+  <conditionalFormatting sqref="H2:H3">
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="duplicateValues" dxfId="3" priority="26"/>
+  <conditionalFormatting sqref="N2:N3">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
       <formula1>"YALS_WORLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
       <formula1>"DATA_ENRICHMENT,GENERIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
       <formula1>"CODES,RELIGION"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
       <formula1>"COUNTRY,LANGUAGE,HINDUISM,ISLAM,CHRISTIANITY"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
       <formula1>"QUERY,UNITY_CATALOG"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{3E6A07F7-C312-4051-B570-C24934D204AA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{3E6A07F7-C312-4051-B570-C24934D204AA}">
       <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2:N3" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
       <formula1>AND(N2&lt;&gt;"",N2=TRIM(N2),ISERROR(SEARCH(" ",N2)),N2=LOWER(N2),NOT(ISNUMBER(--LEFT(N2,1))),LEN(N2)&gt;=3,LEN(N2)&lt;=50,LEFT(N2,2)="t_")</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J2 M2 H2" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J2:J3 M2:M3 H2:H3" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
       <formula1>"SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
       <formula1>"testing"</formula1>
     </dataValidation>
   </dataValidations>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAFA224-F179-4B22-AA5C-0321F09B9538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDAEA1E-0E49-49A2-859C-A223B24029F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>feed_id</t>
   </si>
@@ -115,6 +115,15 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>parent_feed_id</t>
+  </si>
+  <si>
+    <t>SOURCE_TO_BRONZE</t>
+  </si>
+  <si>
+    <t>FULL_LOAD</t>
   </si>
   <si>
     <t>{
@@ -130,22 +139,26 @@
             {
                 "name": "alpha3_b",
                 "type": "string",
-                "nullable": true
+                "nullable": true,
+                "metadata": {}
             },
             {
                 "name": "alpha3_t",
                 "type": "string",
-                "nullable": true
+                "nullable": true,
+                "metadata": {}
             },
             {
                 "name": "alpha2",
                 "type": "string",
-                "nullable": true
+                "nullable": true,
+                "metadata": {}
             },
             {
                 "name": "english",
                 "type": "string",
-                "nullable": true
+                "nullable": true,
+                "metadata": {}
             }
         ]
     },
@@ -166,70 +179,24 @@
         }
     ],
     "comprehensive_checks": [
-        {
-            "check_name": "Some unique check name",
-            "query": "Select 1;",
-            "severity": "WARNING",
-            "threshold": 0,
-            "load_stage": "PRE_LOAD",
-            "dependency_dataset": []
-        },
-        {
-            "check_name": "Some unique check name 1",
-            "query": "Select 1;",
-            "severity": "WARNING",
-            "threshold": 0,
-            "load_stage": "PRE_LOAD",
-            "dependency_dataset": []
-        },
-        {
-            "check_name": "Some unique check name 2",
-            "query": "Select 1;",
-            "severity": "WARNING",
-            "threshold": 0,
-            "load_stage": "PRE_LOAD",
-            "dependency_dataset": []
-        },
-        {
-            "check_name": "Some unique check name 3",
-            "query": "Select 1;",
-            "severity": "WARNING",
-            "threshold": 0,
-            "load_stage": "POST_LOAD",
-            "dependency_dataset": [
-                "demo.customers"
-            ]
-        }
     ]
 }</t>
-  </si>
-  <si>
-    <t>parent_feed_id</t>
-  </si>
-  <si>
-    <t>LANGUAGE</t>
-  </si>
-  <si>
-    <t>SOURCE_TO_BRONZE</t>
-  </si>
-  <si>
-    <t>language_codes</t>
-  </si>
-  <si>
-    <t>t_language_codes</t>
-  </si>
-  <si>
-    <t>FULL_LOAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,8 +278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R3" totalsRowShown="0">
-  <autoFilter ref="A1:R3" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R2" totalsRowShown="0">
+  <autoFilter ref="A1:R2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
@@ -636,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,13 +618,13 @@
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
@@ -714,7 +681,7 @@
         <v>24</v>
       </c>
       <c r="Q1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R1" t="s">
         <v>20</v>
@@ -737,7 +704,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -749,10 +716,10 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -764,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="O2" t="str">
-        <f>_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
+        <f t="shared" ref="O2" si="0">_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
         <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
       </c>
       <c r="P2">
@@ -777,114 +744,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="str">
-        <f>_xlfn.CONCAT("t_uid_",A3,"_",LEFT(B3, 1), LEFT(C3, 1), LEFT(D3, 1), LEFT(E3, 1), LEFT(I3, 1), "_", K3,"_",H3)</f>
-        <v>t_uid_2_YGCLU_FULL_LOAD_language_codes</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="3" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R3">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A2:R2">
+    <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H3">
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N3">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  <conditionalFormatting sqref="N2">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
       <formula1>"YALS_WORLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
       <formula1>"DATA_ENRICHMENT,GENERIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
       <formula1>"CODES,RELIGION"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
       <formula1>"COUNTRY,LANGUAGE,HINDUISM,ISLAM,CHRISTIANITY"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I3" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
       <formula1>"QUERY,UNITY_CATALOG"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K3" xr:uid="{3E6A07F7-C312-4051-B570-C24934D204AA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{9E8DE8C6-3CE5-41E9-83DD-916CABA02A3F}">
       <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2:N3" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
       <formula1>AND(N2&lt;&gt;"",N2=TRIM(N2),ISERROR(SEARCH(" ",N2)),N2=LOWER(N2),NOT(ISNUMBER(--LEFT(N2,1))),LEN(N2)&gt;=3,LEN(N2)&lt;=50,LEFT(N2,2)="t_")</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="J2:J3 M2:M3 H2:H3" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F3" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M2 J2 H2" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
       <formula1>"SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R3" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L3" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
       <formula1>"testing"</formula1>
     </dataValidation>
   </dataValidations>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDAEA1E-0E49-49A2-859C-A223B24029F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA431BD2-8274-4B9D-9D73-FF7FD77C0194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
   <sheets>
     <sheet name="master_specs" sheetId="1" r:id="rId1"/>
@@ -87,21 +87,9 @@
     <t>COUNTRY</t>
   </si>
   <si>
-    <t>country_codes</t>
-  </si>
-  <si>
-    <t>UNITY_CATALOG</t>
-  </si>
-  <si>
-    <t>t_country_codes</t>
-  </si>
-  <si>
     <t>is_active</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
     <t>target_schema_name</t>
   </si>
   <si>
@@ -118,9 +106,6 @@
   </si>
   <si>
     <t>parent_feed_id</t>
-  </si>
-  <si>
-    <t>SOURCE_TO_BRONZE</t>
   </si>
   <si>
     <t>FULL_LOAD</t>
@@ -181,6 +166,21 @@
     "comprehensive_checks": [
     ]
 }</t>
+  </si>
+  <si>
+    <t>EXTRACTION</t>
+  </si>
+  <si>
+    <t>EXTERNAL</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>some_test_feed</t>
+  </si>
+  <si>
+    <t>t_some_test_feed</t>
   </si>
 </sst>
 </file>
@@ -307,9 +307,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,7 +347,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -453,7 +453,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,7 +595,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,33 +605,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N1" t="s">
         <v>11</v>
@@ -678,16 +678,16 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -704,35 +704,35 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" si="0">_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
-        <v>t_uid_1_YGCCU_FULL_LOAD_country_codes</v>
+        <v>t_uid_1_YGCCJ_FULL_LOAD_some_test_feed</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -777,7 +777,7 @@
       <formula1>"COUNTRY,LANGUAGE,HINDUISM,ISLAM,CHRISTIANITY"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
-      <formula1>"QUERY,UNITY_CATALOG"</formula1>
+      <formula1>"DELTA_TABLE,JSON,CSV,PARQUET,XLSX"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{9E8DE8C6-3CE5-41E9-83DD-916CABA02A3F}">
       <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2"</formula1>
@@ -787,10 +787,10 @@
     </dataValidation>
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M2 J2 H2" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
-      <formula1>"SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
+      <formula1>"EXTRACTION,SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
-      <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
+      <formula1>"EXTERNAL,SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA431BD2-8274-4B9D-9D73-FF7FD77C0194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34252D8-1EB4-4EDB-9BFF-67A708CFBFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
   <sheets>
     <sheet name="master_specs" sheetId="1" r:id="rId1"/>
@@ -108,79 +108,69 @@
     <t>parent_feed_id</t>
   </si>
   <si>
-    <t>FULL_LOAD</t>
+    <t>EXTRACTION</t>
+  </si>
+  <si>
+    <t>EXTERNAL</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>some_test_feed</t>
+  </si>
+  <si>
+    <t>t_some_test_feed</t>
+  </si>
+  <si>
+    <t>API_EXTRACTOR_JSON</t>
   </si>
   <si>
     <t>{
-    "primary_key": "alpha3_b",
-    "composite_key": [],
+    "vacuum_hours": 168,
     "partition_keys": [],
-    "vacuum_hours": 168,
-    "source_table_name": "demo.customers",
-    "selection_query":null,
     "selection_schema": {
         "type": "struct",
         "fields": [
             {
-                "name": "alpha3_b",
+                "name": "count",
+                "type": "long",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "name",
                 "type": "string",
                 "nullable": true,
                 "metadata": {}
             },
             {
-                "name": "alpha3_t",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "alpha2",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "english",
-                "type": "string",
+                "name": "age",
+                "type": "integer",
                 "nullable": true,
                 "metadata": {}
             }
         ]
     },
-    "standard_checks": [
-        {
-            "check_sequence": [
-                "_check_primary_key"
-            ],
-            "column_name": "alpha3_b",
-            "threshold": 0
+    "ingestion_config": {
+        "url": "https://api.agify.io",
+        "method": "GET",
+        "params": {
+            "name[]": ["michael", "matthew", "jane"]
         },
-        {
-            "check_sequence": [
-                "_check_nulls"
-            ],
-            "column_name": "english",
-            "threshold": 0
-        }
-    ],
-    "comprehensive_checks": [
-    ]
+        "body": null,
+        "headers": {},
+        "timeout": 30,
+        "retry": {
+            "max_attempts": 3,
+            "backoff_factor": 2.0,
+            "max_backoff": 30,
+            "retry_statuses": [429, 500, 502, 503, 504]
+        },
+        "pagination": null,
+        "response_type": "json"
+    }
 }</t>
-  </si>
-  <si>
-    <t>EXTRACTION</t>
-  </si>
-  <si>
-    <t>EXTERNAL</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>some_test_feed</t>
-  </si>
-  <si>
-    <t>t_some_test_feed</t>
   </si>
 </sst>
 </file>
@@ -307,9 +297,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,7 +337,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -453,7 +443,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -595,7 +585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -605,33 +595,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" customWidth="1"/>
-    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -704,22 +694,22 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>22</v>
@@ -728,11 +718,11 @@
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" si="0">_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
-        <v>t_uid_1_YGCCJ_FULL_LOAD_some_test_feed</v>
+        <v>t_uid_1_YGCCJ_API_EXTRACTOR_JSON_some_test_feed</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -780,7 +770,7 @@
       <formula1>"DELTA_TABLE,JSON,CSV,PARQUET,XLSX"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{9E8DE8C6-3CE5-41E9-83DD-916CABA02A3F}">
-      <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2"</formula1>
+      <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2,API_EXTRACTOR_JSON"</formula1>
     </dataValidation>
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
       <formula1>AND(N2&lt;&gt;"",N2=TRIM(N2),ISERROR(SEARCH(" ",N2)),N2=LOWER(N2),NOT(ISNUMBER(--LEFT(N2,1))),LEN(N2)&gt;=3,LEN(N2)&lt;=50,LEFT(N2,2)="t_")</formula1>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34252D8-1EB4-4EDB-9BFF-67A708CFBFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC98979-5983-4CF1-A643-362D28DE48B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -133,27 +133,33 @@
         "type": "struct",
         "fields": [
             {
-                "name": "count",
+                "name": "userid",
                 "type": "long",
                 "nullable": true,
                 "metadata": {}
             },
             {
-                "name": "name",
+                "name": "id",
+                "type": "long",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "title",
                 "type": "string",
                 "nullable": true,
                 "metadata": {}
             },
             {
-                "name": "age",
-                "type": "integer",
+                "name": "body",
+                "type": "string",
                 "nullable": true,
                 "metadata": {}
             }
         ]
     },
     "ingestion_config": {
-        "url": "https://api.agify.io",
+        "url": "https://jsonplaceholder.typicode.com/posts",
         "method": "GET",
         "params": {
             "name[]": ["michael", "matthew", "jane"]
@@ -595,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC98979-5983-4CF1-A643-362D28DE48B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51176CFF-2BC7-451A-ADF1-E16A7EB82785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
   <sheets>
     <sheet name="master_specs" sheetId="1" r:id="rId1"/>
@@ -127,55 +127,66 @@
   </si>
   <si>
     <t>{
-    "vacuum_hours": 168,
-    "partition_keys": [],
-    "selection_schema": {
-        "type": "struct",
-        "fields": [
-            {
-                "name": "userid",
-                "type": "long",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "id",
-                "type": "long",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "title",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            },
-            {
-                "name": "body",
-                "type": "string",
-                "nullable": true,
-                "metadata": {}
-            }
-        ]
+  "vacuum_hours": 168,
+  "partition_keys": [],
+  "selection_schema": {
+    "type": "struct",
+    "fields": [
+      {
+        "name": "State ID",
+        "type": "string",
+        "nullable": true,
+        "metadata": {}
+      },
+      {
+        "name": "State",
+        "type": "string",
+        "nullable": true,
+        "metadata": {}
+      },
+      {
+        "name": "Year",
+        "type": "integer",
+        "nullable": true,
+        "metadata": {}
+      },
+      {
+        "name": "Population",
+        "type": "float",
+        "nullable": true,
+        "metadata": {}
+      }
+    ]
+  },
+  "ingestion_config": {
+    "url": "https://api.datausa.io/tesseract/data.jsonrecords",
+    "method": "GET",
+    "params": {
+      "cube": "acs_yg_total_population_5",
+      "measures": "Population",
+      "drilldowns": "State,Year",
+      "limit": "100,0"
     },
-    "ingestion_config": {
-        "url": "https://jsonplaceholder.typicode.com/posts",
-        "method": "GET",
-        "params": {
-            "name[]": ["michael", "matthew", "jane"]
-        },
-        "body": null,
-        "headers": {},
-        "timeout": 30,
-        "retry": {
-            "max_attempts": 3,
-            "backoff_factor": 2.0,
-            "max_backoff": 30,
-            "retry_statuses": [429, 500, 502, 503, 504]
-        },
-        "pagination": null,
-        "response_type": "json"
-    }
+    "body": null,
+    "headers": {},
+    "timeout": 30,
+    "retry": {
+      "max_attempts": 3,
+      "backoff_factor": 2.0,
+      "max_backoff": 30,
+      "retry_statuses": [429, 500, 502, 503, 504]
+    },
+    "pagination": {
+      "type": "offset_compound",
+      "limit_param": "limit",
+      "page_size": 100,
+      "page_path": "page",
+      "total_path": "total",
+      "offset_path": "offset",
+      "max_pages": 1000
+    },
+    "response_type": "json"
+  }
 }</t>
   </si>
 </sst>
@@ -303,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -343,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -449,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -591,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,32 +613,32 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" customWidth="1"/>
+    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +694,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51176CFF-2BC7-451A-ADF1-E16A7EB82785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C594EDB6-EEC3-4A91-9C7F-6DB51F2A9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
   <sheets>
     <sheet name="master_specs" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>feed_id</t>
   </si>
@@ -93,101 +93,313 @@
     <t>target_schema_name</t>
   </si>
   <si>
-    <t>demo</t>
-  </si>
-  <si>
     <t>parallelism_group_number</t>
   </si>
   <si>
     <t>target_unity_catalog</t>
   </si>
   <si>
+    <t>parent_feed_id</t>
+  </si>
+  <si>
+    <t>{
+    "vacuum_hours": 168,
+    "partition_keys": [],
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "alpha3_b",
+                "type": "string",
+                "nullable": false,
+                "metadata": {}
+            },
+            {
+                "name": "alpha3_t",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "alpha2",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "english_label",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "ingestion_config": {
+        "request": {
+            "url": "https://hub.huwise.com/api/explore/v2.1/catalog/datasets/iso-language-codes-639-1-and-639-2/exports/parquet/",
+            "method": "GET",
+            "headers": {},
+            "params": {
+                "lang": "en",
+                "timezone": "Asia/Calcutta"
+            },
+            "body": null,
+            "timeout": 30
+        },
+        "response": {
+            "format": "parquet",
+            "content_type": "application/parquet",
+            "compression": "none",
+            "file_layout": "single",
+            "infer_schema": true
+        },
+        "retry": {
+            "enabled": true,
+            "max_attempts": 3,
+            "backoff_factor": 2.0,
+            "max_backoff": 30,
+            "retry_statuses": [
+                429,
+                500,
+                502,
+                503,
+                504
+            ]
+        },
+        "deduplication": {
+            "enabled": false
+        },
+        "metadata": {
+            "source": "huwise",
+            "feed_type": "api",
+            "owner": "data-platform",
+            "sla": "daily"
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>PARQUET</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>LANGUAGE</t>
+  </si>
+  <si>
+    <t>iso_language_codes</t>
+  </si>
+  <si>
+    <t>t_iso_language_codes</t>
+  </si>
+  <si>
+    <t>{
+    "vacuum_hours": 168,
+    "partition_keys": [],
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "official_lang_code",
+                "type": "string",
+                "nullable": false,
+                "metadata": {}
+            },
+            {
+                "name": "iso2_code",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "iso3_code",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "onu_code",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "is_ilomember",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "is_receiving_quest",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "label_en",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "label_fr",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "label_sp",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "geo_shape",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "geo_point_2d",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "ingestion_config": {
+        "request": {
+            "url": "https://hub.huwise.com/api/explore/v2.1/catalog/datasets/countries-codes/exports/parquet/",
+            "method": "GET",
+            "headers": {},
+            "params": {
+                "lang": "en",
+                "timezone": "Asia/Calcutta"
+            },
+            "body": null,
+            "timeout": 30
+        },
+        "response": {
+            "format": "parquet",
+            "content_type": "application/parquet",
+            "compression": "none",
+            "file_layout": "single",
+            "infer_schema": true
+        },
+        "retry": {
+            "enabled": true,
+            "max_attempts": 3,
+            "backoff_factor": 2.0,
+            "max_backoff": 30,
+            "retry_statuses": [
+                429,
+                500,
+                502,
+                503,
+                504
+            ]
+        },
+        "deduplication": {
+            "enabled": false
+        },
+        "metadata": {
+            "source": "huwise",
+            "feed_type": "api",
+            "owner": "data-platform",
+            "sla": "daily"
+        }
+    }
+}</t>
+  </si>
+  <si>
+    <t>API_EXTRACTOR</t>
+  </si>
+  <si>
+    <t>SOURCE_TO_BRONZE</t>
+  </si>
+  <si>
+    <t>BRONZE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>iso_language_codes_raw</t>
+  </si>
+  <si>
+    <t>country_codes_raw</t>
+  </si>
+  <si>
+    <t>DELTA_TABLE</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>t_iso_language_codes_raw</t>
+  </si>
+  <si>
+    <t>t_country_codes_raw</t>
+  </si>
+  <si>
     <t>testing</t>
   </si>
   <si>
-    <t>parent_feed_id</t>
-  </si>
-  <si>
-    <t>EXTRACTION</t>
-  </si>
-  <si>
-    <t>EXTERNAL</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
-    <t>some_test_feed</t>
-  </si>
-  <si>
-    <t>t_some_test_feed</t>
-  </si>
-  <si>
-    <t>API_EXTRACTOR_JSON</t>
+    <t>BRONZE_TO_SILVER</t>
   </si>
   <si>
     <t>{
-  "vacuum_hours": 168,
-  "partition_keys": [],
-  "selection_schema": {
-    "type": "struct",
-    "fields": [
-      {
-        "name": "State ID",
-        "type": "string",
-        "nullable": true,
-        "metadata": {}
-      },
-      {
-        "name": "State",
-        "type": "string",
-        "nullable": true,
-        "metadata": {}
-      },
-      {
-        "name": "Year",
-        "type": "integer",
-        "nullable": true,
-        "metadata": {}
-      },
-      {
-        "name": "Population",
-        "type": "float",
-        "nullable": true,
-        "metadata": {}
-      }
+    "primary_key": "alpha3_b",
+    "composite_key": [],
+    "partition_keys": [],
+    "vacuum_hours": 168,
+    "source_table_name": "bronze.t_iso_language_codes_raw",
+    "selection_query":null,
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "alpha3_b",
+                "type": "string",
+                "nullable": false,
+                "metadata": {}
+            },
+            {
+                "name": "alpha3_t",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "alpha2",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "english_label",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "standard_checks": [
+        {
+            "check_sequence": [
+                "_check_primary_key"
+            ],
+            "column_name": "alpha3_b",
+            "threshold": 0
+        }
+    ],
+    "comprehensive_checks": [
     ]
-  },
-  "ingestion_config": {
-    "url": "https://api.datausa.io/tesseract/data.jsonrecords",
-    "method": "GET",
-    "params": {
-      "cube": "acs_yg_total_population_5",
-      "measures": "Population",
-      "drilldowns": "State,Year",
-      "limit": "100,0"
-    },
-    "body": null,
-    "headers": {},
-    "timeout": 30,
-    "retry": {
-      "max_attempts": 3,
-      "backoff_factor": 2.0,
-      "max_backoff": 30,
-      "retry_statuses": [429, 500, 502, 503, 504]
-    },
-    "pagination": {
-      "type": "offset_compound",
-      "limit_param": "limit",
-      "page_size": 100,
-      "page_path": "page",
-      "total_path": "total",
-      "offset_path": "offset",
-      "max_pages": 1000
-    },
-    "response_type": "json"
-  }
 }</t>
+  </si>
+  <si>
+    <t>FULL_LOAD</t>
   </si>
 </sst>
 </file>
@@ -285,8 +497,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R2" totalsRowShown="0">
-  <autoFilter ref="A1:R2" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R4" totalsRowShown="0">
+  <autoFilter ref="A1:R4" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
@@ -314,9 +526,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +566,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +672,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +814,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,35 +822,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" customWidth="1"/>
+    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -673,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>18</v>
@@ -685,16 +897,16 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -711,35 +923,35 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="O2" t="str">
         <f t="shared" ref="O2" si="0">_xlfn.CONCAT("t_uid_",A2,"_",LEFT(B2, 1), LEFT(C2, 1), LEFT(D2, 1), LEFT(E2, 1), LEFT(I2, 1), "_", K2,"_",H2)</f>
-        <v>t_uid_1_YGCCJ_API_EXTRACTOR_JSON_some_test_feed</v>
+        <v>t_uid_1_YGCCP_API_EXTRACTOR_iso_language_codes_raw</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -748,62 +960,182 @@
         <v>0</v>
       </c>
       <c r="R2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("t_uid_",A3,"_",LEFT(B3, 1), LEFT(C3, 1), LEFT(D3, 1), LEFT(E3, 1), LEFT(I3, 1), "_", K3,"_",H3)</f>
+        <v>t_uid_2_YGCLP_API_EXTRACTOR_country_codes_raw</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="str">
+        <f>_xlfn.CONCAT("t_uid_",A4,"_",LEFT(B4, 1), LEFT(C4, 1), LEFT(D4, 1), LEFT(E4, 1), LEFT(I4, 1), "_", K4,"_",H4)</f>
+        <v>t_uid_3_YGCCD_FULL_LOAD_iso_language_codes</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="A2:A4">
     <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R2">
+  <conditionalFormatting sqref="A2:R4">
     <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
+  <conditionalFormatting sqref="H2:H4">
     <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
+  <conditionalFormatting sqref="N2:N4">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
+  <dataValidations count="14">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
       <formula1>"YALS_WORLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
       <formula1>"DATA_ENRICHMENT,GENERIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
       <formula1>"CODES,RELIGION"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
       <formula1>"COUNTRY,LANGUAGE,HINDUISM,ISLAM,CHRISTIANITY"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
       <formula1>"DELTA_TABLE,JSON,CSV,PARQUET,XLSX"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{9E8DE8C6-3CE5-41E9-83DD-916CABA02A3F}">
-      <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2,API_EXTRACTOR_JSON"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2:N4" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
       <formula1>AND(N2&lt;&gt;"",N2=TRIM(N2),ISERROR(SEARCH(" ",N2)),N2=LOWER(N2),NOT(ISNUMBER(--LEFT(N2,1))),LEN(N2)&gt;=3,LEN(N2)&lt;=50,LEFT(N2,2)="t_")</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="M2 J2 H2" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H4 J2:J4" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
       <formula1>"EXTRACTION,SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
       <formula1>"EXTERNAL,SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
-      <formula1>"testing"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
+      <formula1>"testing,yalsworld_datawarehouse"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{8DE01F92-A7E3-4904-AFF6-21122520A11C}">
+      <formula1>"bronze,silver,gold"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{B2C7DA7D-8D0C-4838-AF83-029786900D6A}">
+      <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2,API_EXTRACTOR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{B4488FCE-160F-4AFB-8EC5-F9C5095A62C9}">
+      <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C594EDB6-EEC3-4A91-9C7F-6DB51F2A9AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B8456-F649-436F-9AF6-AC322470F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>feed_id</t>
   </si>
@@ -400,6 +400,124 @@
   </si>
   <si>
     <t>FULL_LOAD</t>
+  </si>
+  <si>
+    <t>country_codes</t>
+  </si>
+  <si>
+    <t>t_country_codes</t>
+  </si>
+  <si>
+    <t>{
+    "primary_key": "iso2_code",
+    "composite_key": ["iso2_code", "iso3_code", "onu_code"],
+    "partition_keys": [],
+    "vacuum_hours": 168,
+    "source_table_name": "bronze.t_country_codes_raw",
+    "selection_query": null,
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "official_lang_code",
+                "type": "string",
+                "nullable": false,
+                "metadata": {}
+            },
+            {
+                "name": "iso2_code",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "iso3_code",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "onu_code",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "is_ilomember",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "is_receiving_quest",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "label_en",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "label_fr",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "label_sp",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "geo_shape",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "geo_point_2d",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "standard_checks": [
+        {
+            "check_sequence": [
+                "_check_primary_key"
+            ],
+            "column_name": "iso2_code",
+            "threshold": 0
+        },
+        {
+            "check_sequence": [
+                "_check_duplicates", "_check_nulls"
+            ],
+            "column_name": "iso3_code",
+            "threshold": 0
+        },
+        {
+            "check_sequence": [
+                "_check_duplicates", "_check_nulls"
+            ],
+            "column_name": "onu_code",
+            "threshold": 0
+        },
+        {
+            "check_sequence": [
+                "_check_composite_key"
+            ],
+            "column_name": ["iso2_code", "iso3_code", "onu_code"],
+            "threshold": 0
+        }
+    ],
+    "comprehensive_checks": []
+}</t>
   </si>
 </sst>
 </file>
@@ -497,8 +615,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R4" totalsRowShown="0">
-  <autoFilter ref="A1:R4" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R5" totalsRowShown="0">
+  <autoFilter ref="A1:R5" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
@@ -822,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>40</v>
@@ -1065,7 +1183,7 @@
       </c>
       <c r="O4" t="str">
         <f>_xlfn.CONCAT("t_uid_",A4,"_",LEFT(B4, 1), LEFT(C4, 1), LEFT(D4, 1), LEFT(E4, 1), LEFT(I4, 1), "_", K4,"_",H4)</f>
-        <v>t_uid_3_YGCCD_FULL_LOAD_iso_language_codes</v>
+        <v>t_uid_3_YGCLD_FULL_LOAD_iso_language_codes</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1074,67 +1192,121 @@
         <v>1</v>
       </c>
       <c r="R4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" t="str">
+        <f>_xlfn.CONCAT("t_uid_",A5,"_",LEFT(B5, 1), LEFT(C5, 1), LEFT(D5, 1), LEFT(E5, 1), LEFT(I5, 1), "_", K5,"_",H5)</f>
+        <v>t_uid_4_YGCCD_FULL_LOAD_country_codes</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A4">
+  <conditionalFormatting sqref="A2:A5">
     <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R4">
+  <conditionalFormatting sqref="A2:R5">
     <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H5">
     <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N4">
+  <conditionalFormatting sqref="N2:N5">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
-  <dataValidations count="14">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B4" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
+  <dataValidations count="13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
       <formula1>"YALS_WORLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C4" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
       <formula1>"DATA_ENRICHMENT,GENERIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D4" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
       <formula1>"CODES,RELIGION"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
       <formula1>"COUNTRY,LANGUAGE,HINDUISM,ISLAM,CHRISTIANITY"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I4" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
       <formula1>"DELTA_TABLE,JSON,CSV,PARQUET,XLSX"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2:N4" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2:N5" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
       <formula1>AND(N2&lt;&gt;"",N2=TRIM(N2),ISERROR(SEARCH(" ",N2)),N2=LOWER(N2),NOT(ISNUMBER(--LEFT(N2,1))),LEN(N2)&gt;=3,LEN(N2)&lt;=50,LEFT(N2,2)="t_")</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H4 J2:J4" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H5 J2:J5" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
       <formula1>"EXTRACTION,SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G4" xr:uid="{5825120F-D012-47BA-B828-E28B3B293C20}">
-      <formula1>"EXTERNAL,SOURCE,BRONZE,SILVER,GOLD"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
       <formula1>"testing,yalsworld_datawarehouse"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{8DE01F92-A7E3-4904-AFF6-21122520A11C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{8DE01F92-A7E3-4904-AFF6-21122520A11C}">
       <formula1>"bronze,silver,gold"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K4" xr:uid="{B2C7DA7D-8D0C-4838-AF83-029786900D6A}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{B2C7DA7D-8D0C-4838-AF83-029786900D6A}">
       <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2,API_EXTRACTOR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{B4488FCE-160F-4AFB-8EC5-F9C5095A62C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{B4488FCE-160F-4AFB-8EC5-F9C5095A62C9}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
   </dataValidations>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4B8456-F649-436F-9AF6-AC322470F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BA6129-25DB-428E-959D-E54852BA53DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -397,9 +397,6 @@
     "comprehensive_checks": [
     ]
 }</t>
-  </si>
-  <si>
-    <t>FULL_LOAD</t>
   </si>
   <si>
     <t>country_codes</t>
@@ -518,6 +515,9 @@
     ],
     "comprehensive_checks": []
 }</t>
+  </si>
+  <si>
+    <t>INCREMENTAL_CDC</t>
   </si>
 </sst>
 </file>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +1170,7 @@
         <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
         <v>39</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="O4" t="str">
         <f>_xlfn.CONCAT("t_uid_",A4,"_",LEFT(B4, 1), LEFT(C4, 1), LEFT(D4, 1), LEFT(E4, 1), LEFT(I4, 1), "_", K4,"_",H4)</f>
-        <v>t_uid_3_YGCLD_FULL_LOAD_iso_language_codes</v>
+        <v>t_uid_3_YGCLD_INCREMENTAL_CDC_iso_language_codes</v>
       </c>
       <c r="P4">
         <v>2</v>
@@ -1218,16 +1218,16 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
         <v>35</v>
       </c>
       <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
       </c>
       <c r="L5" t="s">
         <v>39</v>
@@ -1236,11 +1236,11 @@
         <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" t="str">
         <f>_xlfn.CONCAT("t_uid_",A5,"_",LEFT(B5, 1), LEFT(C5, 1), LEFT(D5, 1), LEFT(E5, 1), LEFT(I5, 1), "_", K5,"_",H5)</f>
-        <v>t_uid_4_YGCCD_FULL_LOAD_country_codes</v>
+        <v>t_uid_4_YGCCD_INCREMENTAL_CDC_country_codes</v>
       </c>
       <c r="P5">
         <v>2</v>

--- a/files_dev/master_specs.xlsx
+++ b/files_dev/master_specs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\hando\dev\standard-data-management-framework\files_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BA6129-25DB-428E-959D-E54852BA53DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89E279C-6777-4329-B7A9-648551436F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="209" xr2:uid="{9E3D2F59-A0F5-48A1-B731-1D8811F4785E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>feed_id</t>
   </si>
@@ -518,6 +518,167 @@
   </si>
   <si>
     <t>INCREMENTAL_CDC</t>
+  </si>
+  <si>
+    <t>DATA_ENRICHMENT</t>
+  </si>
+  <si>
+    <t>RELIGION</t>
+  </si>
+  <si>
+    <t>ISLAM</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>t_test</t>
+  </si>
+  <si>
+    <t>STORAGE_FETCH</t>
+  </si>
+  <si>
+    <t>{
+    "vacuum_hours": 168,
+    "partition_keys": [],
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "_index",
+                "type": "long",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "_name",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "aya",
+                "type": {
+                    "type": "array",
+                    "containsNull": true,
+                    "elementType": {
+                        "type": "struct",
+                        "fields": [
+                            {
+                                "name": "_VALUE",
+                                "type": "string",
+                                "nullable": true,
+                                "metadata": {}
+                            },
+                            {
+                                "name": "_bismillah",
+                                "type": "string",
+                                "nullable": true,
+                                "metadata": {}
+                            },
+                            {
+                                "name": "_index",
+                                "type": "long",
+                                "nullable": true,
+                                "metadata": {}
+                            },
+                            {
+                                "name": "_text",
+                                "type": "string",
+                                "nullable": true,
+                                "metadata": {}
+                            }
+                        ]
+                    }
+                },
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "storage_config": {
+        "file_type": "xml",
+        "lookup_directory": "/home/hando/dev/standard-data-management-framework/storage",
+        "storage_type": "STANDARD",
+        "xml_row_tag": "sura",
+        "is_multi_file": false,
+        "inside_timestamp_dir": "",
+        "file_name": "file_full_simple_quran.xml"
+    }
+}</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>t_test2</t>
+  </si>
+  <si>
+    <t>{
+    "vacuum_hours": 168,
+    "partition_keys": [],
+    "selection_schema": {
+        "type": "struct",
+        "fields": [
+            {
+                "name": "_index",
+                "type": "long",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "_name",
+                "type": "string",
+                "nullable": true,
+                "metadata": {}
+            },
+            {
+                "name": "aya",
+                "type": {
+                    "type": "array",
+                    "containsNull": true,
+                    "elementType": {
+                        "type": "struct",
+                        "fields": [
+                            {
+                                "name": "_VALUE",
+                                "type": "string",
+                                "nullable": true,
+                                "metadata": {}
+                            },
+                            {
+                                "name": "_index",
+                                "type": "long",
+                                "nullable": true,
+                                "metadata": {}
+                            },
+                            {
+                                "name": "_text",
+                                "type": "string",
+                                "nullable": true,
+                                "metadata": {}
+                            }
+                        ]
+                    }
+                },
+                "nullable": true,
+                "metadata": {}
+            }
+        ]
+    },
+    "storage_config": {
+        "file_type": "xml",
+        "lookup_directory": "/home/hando/dev/standard-data-management-framework/storage/medgrp",
+        "storage_type": "MEDALLION",
+        "xml_row_tag": "sura",
+        "is_multi_file": true,
+        "inside_timestamp_dir": "xml_group",
+        "file_name": null
+    }
+}</t>
   </si>
 </sst>
 </file>
@@ -615,8 +776,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R5" totalsRowShown="0">
-  <autoFilter ref="A1:R5" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}" name="master_specs" displayName="master_specs" ref="A1:R7" totalsRowShown="0">
+  <autoFilter ref="A1:R7" xr:uid="{607A0EF2-7813-403A-A324-C8BA6E6AB114}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{79DEFD1E-C4B7-4717-97F6-0D39BE9CE126}" name="feed_id"/>
     <tableColumn id="2" xr3:uid="{590CECDE-6BE1-49B1-8A26-5436C9A95313}" name="system_name"/>
@@ -940,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A6F937-D7CE-4353-901E-FC6AEF049B39}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1135,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1192,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1249,64 +1410,178 @@
         <v>2</v>
       </c>
       <c r="R5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="str">
+        <f>_xlfn.CONCAT("t_uid_",A6,"_",LEFT(B6, 1), LEFT(C6, 1), LEFT(D6, 1), LEFT(E6, 1), LEFT(I6, 1), "_", K6,"_",H6)</f>
+        <v>t_uid_5_YDRIX_STORAGE_FETCH_test</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="str">
+        <f>_xlfn.CONCAT("t_uid_",A7,"_",LEFT(B7, 1), LEFT(C7, 1), LEFT(D7, 1), LEFT(E7, 1), LEFT(I7, 1), "_", K7,"_",H7)</f>
+        <v>t_uid_6_YDRIX_STORAGE_FETCH_test2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:A5">
+  <conditionalFormatting sqref="A2:A7">
     <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="3" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:R5">
+  <conditionalFormatting sqref="A2:R7">
     <cfRule type="containsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H5">
+  <conditionalFormatting sqref="H2:H7">
     <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N5">
+  <conditionalFormatting sqref="N2:N7">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B5" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B7" xr:uid="{7E208DA3-F201-4D55-8871-75223992D6F6}">
       <formula1>"YALS_WORLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{0B03C047-76E9-42CB-AC60-57D9606D2481}">
       <formula1>"DATA_ENRICHMENT,GENERIC"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D5" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D7" xr:uid="{483113FD-1194-4C33-99BA-0094FA37F1CA}">
       <formula1>"CODES,RELIGION"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{DD60934B-F5B2-4013-9719-3135E2D233D1}">
       <formula1>"COUNTRY,LANGUAGE,HINDUISM,ISLAM,CHRISTIANITY"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I5" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
-      <formula1>"DELTA_TABLE,JSON,CSV,PARQUET,XLSX"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I2:I7" xr:uid="{D5871B94-C844-4AC3-BC5A-D1C89244F32D}">
+      <formula1>"DELTA_TABLE,JSON,CSV,PARQUET,XLSX,XML"</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2:N5" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="INVALID TARGET TABLE NAME" error="Please read the feed name rules by clicking on the feed_name data cell. Non-Compliance to feed name rules is strictly prohibited. Even if excel validation is successful, SDMF may not process feeds if rules are invalidated." promptTitle="Target Table Name Rules" prompt="1.No leading or trailing spaces_x000a_2.No spaces inside the text_x000a_3.All lowercase letters_x000a_4.Does not start with a number_x000a_5.Length is at least 3 characters_x000a_6.Length is no more than 50 characters_x000a_7.Text must start with &quot;t_&quot;_x000a_DO NOT INCLUDE SPECIAL CHARACTERS" sqref="N2:N7" xr:uid="{4FAD78C1-A717-46A8-8B62-E0E28A665134}">
       <formula1>AND(N2&lt;&gt;"",N2=TRIM(N2),ISERROR(SEARCH(" ",N2)),N2=LOWER(N2),NOT(ISNUMBER(--LEFT(N2,1))),LEN(N2)&gt;=3,LEN(N2)&lt;=50,LEFT(N2,2)="t_")</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H5 J2:J5" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F5" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="H2:H7 J2:J7" xr:uid="{43A1729D-1187-4114-BCC7-69F23DF7B2DF}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F7" xr:uid="{6ACEFD19-F3D1-4074-A1E0-3114AC5C3633}">
       <formula1>"EXTRACTION,SOURCE_TO_BRONZE,BRONZE_TO_SILVER,SILVER_TO_GOLD"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R5" xr:uid="{D889056B-B881-4521-861C-659903490942}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R7" xr:uid="{D889056B-B881-4521-861C-659903490942}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L5" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L2:L7" xr:uid="{25792A68-0714-4780-856C-C89C05C858D7}">
       <formula1>"testing,yalsworld_datawarehouse"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{8DE01F92-A7E3-4904-AFF6-21122520A11C}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M2:M7" xr:uid="{8DE01F92-A7E3-4904-AFF6-21122520A11C}">
       <formula1>"bronze,silver,gold"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K5" xr:uid="{B2C7DA7D-8D0C-4838-AF83-029786900D6A}">
-      <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2,API_EXTRACTOR"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="K2:K7" xr:uid="{B2C7DA7D-8D0C-4838-AF83-029786900D6A}">
+      <formula1>"FULL_LOAD,APPEND_LOAD,INCREMENTAL_CDC,SCD_TYPE_2,API_EXTRACTOR,STORAGE_FETCH"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5" xr:uid="{B4488FCE-160F-4AFB-8EC5-F9C5095A62C9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G7" xr:uid="{B4488FCE-160F-4AFB-8EC5-F9C5095A62C9}">
       <formula1>"SOURCE,BRONZE,SILVER,GOLD"</formula1>
     </dataValidation>
   </dataValidations>
